--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3226200.008663149</v>
+        <v>3225571.05246172</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1149835.83649163</v>
+        <v>1149835.836491633</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>327.1389169604541</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>150.1398948421831</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -819,28 +819,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.0813868668784</v>
+        <v>76.74086563202125</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.4406736556695</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>253.9215254869808</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>145.0973930424904</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>188.1792849248197</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>130.3553607729761</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>46.0209021339319</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.049157131894</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>9.936707027008493</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>15.3627906092433</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
@@ -1387,10 +1387,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>128.1813886246139</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484021</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530675</v>
@@ -1618,7 +1618,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>291.1960339282663</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1666,16 +1666,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.57090943722719</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V16" t="n">
         <v>169.3282772530675</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.6033183649453</v>
+        <v>283.6033183649454</v>
       </c>
       <c r="C17" t="n">
-        <v>276.3572665927611</v>
+        <v>276.3572665927612</v>
       </c>
       <c r="D17" t="n">
-        <v>268.7002376061614</v>
+        <v>268.7002376061615</v>
       </c>
       <c r="E17" t="n">
-        <v>285.6712097452833</v>
+        <v>285.6712097452834</v>
       </c>
       <c r="F17" t="n">
-        <v>299.8390141959844</v>
+        <v>299.8390141959845</v>
       </c>
       <c r="G17" t="n">
-        <v>296.1446480675393</v>
+        <v>296.1446480675394</v>
       </c>
       <c r="H17" t="n">
-        <v>207.9557400398367</v>
+        <v>207.9557400398368</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.06726584912235</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>51.96193961902247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>100.6793399251931</v>
       </c>
       <c r="U17" t="n">
-        <v>140.3087223804098</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V17" t="n">
-        <v>225.7992613141792</v>
+        <v>225.7992613141793</v>
       </c>
       <c r="W17" t="n">
-        <v>176.7085453933398</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>272.6715991269361</v>
+        <v>272.6715991269363</v>
       </c>
       <c r="Y17" t="n">
-        <v>279.6393220992673</v>
+        <v>279.6393220992674</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.4694586150507</v>
+        <v>70.4694586150508</v>
       </c>
       <c r="C19" t="n">
-        <v>55.6165868653331</v>
+        <v>55.6165868653332</v>
       </c>
       <c r="D19" t="n">
-        <v>41.19030207717283</v>
+        <v>41.19030207717293</v>
       </c>
       <c r="E19" t="n">
-        <v>41.11674413005194</v>
+        <v>41.11674413005204</v>
       </c>
       <c r="F19" t="n">
-        <v>42.86619554981921</v>
+        <v>42.86619554981931</v>
       </c>
       <c r="G19" t="n">
-        <v>53.68503347221134</v>
+        <v>53.68503347221144</v>
       </c>
       <c r="H19" t="n">
-        <v>41.03728563878339</v>
+        <v>41.03728563878349</v>
       </c>
       <c r="I19" t="n">
-        <v>18.87700121995532</v>
+        <v>18.87700121995542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.775499584411236</v>
+        <v>9.775499584411335</v>
       </c>
       <c r="S19" t="n">
-        <v>87.90144308993855</v>
+        <v>87.90144308993865</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4753814241106</v>
+        <v>120.4753814241107</v>
       </c>
       <c r="U19" t="n">
-        <v>169.6979239511805</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V19" t="n">
-        <v>150.4330718380464</v>
+        <v>150.4330718380465</v>
       </c>
       <c r="W19" t="n">
-        <v>167.6106181587966</v>
+        <v>167.6106181587967</v>
       </c>
       <c r="X19" t="n">
-        <v>118.8530391055092</v>
+        <v>118.8530391055093</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.9944606821855</v>
+        <v>107.9944606821856</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>283.6033183649453</v>
+        <v>283.6033183649455</v>
       </c>
       <c r="C20" t="n">
-        <v>276.3572665927611</v>
+        <v>276.3572665927612</v>
       </c>
       <c r="D20" t="n">
-        <v>268.7002376061614</v>
+        <v>268.7002376061615</v>
       </c>
       <c r="E20" t="n">
-        <v>285.6712097452833</v>
+        <v>285.6712097452835</v>
       </c>
       <c r="F20" t="n">
-        <v>299.8390141959844</v>
+        <v>299.8390141959845</v>
       </c>
       <c r="G20" t="n">
-        <v>110.0715121419813</v>
+        <v>296.1446480675394</v>
       </c>
       <c r="H20" t="n">
-        <v>207.9557400398367</v>
+        <v>207.9557400398368</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>24.06726584912238</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>108.3791165268399</v>
+        <v>108.3791165268401</v>
       </c>
       <c r="U20" t="n">
-        <v>140.3087223804098</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V20" t="n">
-        <v>225.7992613141792</v>
+        <v>15.65885953949715</v>
       </c>
       <c r="W20" t="n">
-        <v>254.4025647920578</v>
+        <v>254.402564792058</v>
       </c>
       <c r="X20" t="n">
-        <v>272.6715991269361</v>
+        <v>272.6715991269363</v>
       </c>
       <c r="Y20" t="n">
-        <v>279.6393220992673</v>
+        <v>279.6393220992675</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.46945861505067</v>
+        <v>70.46945861505083</v>
       </c>
       <c r="C22" t="n">
-        <v>55.61658686533308</v>
+        <v>55.61658686533323</v>
       </c>
       <c r="D22" t="n">
-        <v>41.1903020771728</v>
+        <v>41.19030207717296</v>
       </c>
       <c r="E22" t="n">
-        <v>41.11674413005191</v>
+        <v>41.11674413005207</v>
       </c>
       <c r="F22" t="n">
-        <v>42.86619554981918</v>
+        <v>42.86619554981934</v>
       </c>
       <c r="G22" t="n">
-        <v>53.68503347221132</v>
+        <v>53.68503347221147</v>
       </c>
       <c r="H22" t="n">
-        <v>41.03728563878336</v>
+        <v>41.03728563878352</v>
       </c>
       <c r="I22" t="n">
-        <v>18.87700121995529</v>
+        <v>18.87700121995545</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.775499584411207</v>
+        <v>9.775499584411364</v>
       </c>
       <c r="S22" t="n">
-        <v>87.90144308993852</v>
+        <v>87.90144308993868</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4753814241106</v>
+        <v>120.4753814241108</v>
       </c>
       <c r="U22" t="n">
-        <v>169.6979239511805</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V22" t="n">
-        <v>150.4330718380464</v>
+        <v>150.4330718380466</v>
       </c>
       <c r="W22" t="n">
-        <v>167.6106181587966</v>
+        <v>167.6106181587967</v>
       </c>
       <c r="X22" t="n">
-        <v>118.8530391055091</v>
+        <v>118.8530391055093</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.9944606821855</v>
+        <v>107.9944606821856</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>283.6033183649454</v>
+        <v>283.6033183649455</v>
       </c>
       <c r="C23" t="n">
         <v>276.3572665927612</v>
       </c>
       <c r="D23" t="n">
-        <v>268.7002376061614</v>
+        <v>268.7002376061615</v>
       </c>
       <c r="E23" t="n">
-        <v>285.6712097452834</v>
+        <v>285.6712097452835</v>
       </c>
       <c r="F23" t="n">
         <v>299.8390141959845</v>
       </c>
       <c r="G23" t="n">
-        <v>296.1446480675393</v>
+        <v>296.1446480675394</v>
       </c>
       <c r="H23" t="n">
-        <v>207.9557400398367</v>
+        <v>207.9557400398368</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.06726584912238</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.96193961902243</v>
+        <v>51.9619396190225</v>
       </c>
       <c r="T23" t="n">
-        <v>108.37911652684</v>
+        <v>108.3791165268401</v>
       </c>
       <c r="U23" t="n">
-        <v>140.3087223804098</v>
+        <v>140.3087223804099</v>
       </c>
       <c r="V23" t="n">
         <v>225.7992613141793</v>
       </c>
       <c r="W23" t="n">
-        <v>254.4025647920579</v>
+        <v>254.402564792058</v>
       </c>
       <c r="X23" t="n">
-        <v>272.6715991269362</v>
+        <v>272.6715991269363</v>
       </c>
       <c r="Y23" t="n">
-        <v>41.60424655468653</v>
+        <v>17.53698070556269</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.46945861505075</v>
+        <v>70.46945861505083</v>
       </c>
       <c r="C25" t="n">
-        <v>55.61658686533316</v>
+        <v>55.61658686533323</v>
       </c>
       <c r="D25" t="n">
-        <v>41.19030207717289</v>
+        <v>41.19030207717296</v>
       </c>
       <c r="E25" t="n">
-        <v>41.116744130052</v>
+        <v>41.11674413005207</v>
       </c>
       <c r="F25" t="n">
-        <v>42.86619554981927</v>
+        <v>42.86619554981934</v>
       </c>
       <c r="G25" t="n">
-        <v>53.6850334722114</v>
+        <v>53.68503347221147</v>
       </c>
       <c r="H25" t="n">
-        <v>41.03728563878344</v>
+        <v>41.03728563878352</v>
       </c>
       <c r="I25" t="n">
-        <v>18.87700121995537</v>
+        <v>18.87700121995545</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.775499584411293</v>
+        <v>9.775499584411364</v>
       </c>
       <c r="S25" t="n">
-        <v>87.90144308993861</v>
+        <v>87.90144308993868</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4753814241107</v>
+        <v>120.4753814241108</v>
       </c>
       <c r="U25" t="n">
-        <v>169.6979239511805</v>
+        <v>169.6979239511806</v>
       </c>
       <c r="V25" t="n">
-        <v>150.4330718380465</v>
+        <v>150.4330718380466</v>
       </c>
       <c r="W25" t="n">
-        <v>167.6106181587966</v>
+        <v>167.6106181587967</v>
       </c>
       <c r="X25" t="n">
-        <v>118.8530391055092</v>
+        <v>118.8530391055093</v>
       </c>
       <c r="Y25" t="n">
         <v>107.9944606821856</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>149.9347764475696</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>100.5791034295502</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2769,16 +2769,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662013</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>123.0777182027731</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>67.21752135244195</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3085,7 +3085,7 @@
         <v>90.90562710059305</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
         <v>208.3257718879323</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3274,7 +3274,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3283,10 +3283,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135906</v>
+        <v>190.4822506135905</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875173</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541621</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3334,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3492,7 +3492,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875342</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541644</v>
+        <v>122.8352329541635</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730204</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380501</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357228</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596442</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.2258979979938</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>333.9798462258096</v>
+        <v>333.9798462258097</v>
       </c>
       <c r="D41" t="n">
-        <v>326.3228172392098</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>343.2937893783318</v>
+        <v>343.2937893783319</v>
       </c>
       <c r="F41" t="n">
-        <v>357.4615938290329</v>
+        <v>357.461593829033</v>
       </c>
       <c r="G41" t="n">
-        <v>21.44077795060026</v>
+        <v>353.7672277005879</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>265.5783196728852</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>81.68984548217084</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.584519252071</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0016961598884</v>
+        <v>166.0016961598885</v>
       </c>
       <c r="U41" t="n">
-        <v>197.9313020134583</v>
+        <v>197.9313020134584</v>
       </c>
       <c r="V41" t="n">
-        <v>283.4218409472277</v>
+        <v>283.4218409472278</v>
       </c>
       <c r="W41" t="n">
-        <v>312.0251444251063</v>
+        <v>312.0251444251064</v>
       </c>
       <c r="X41" t="n">
-        <v>330.2941787599846</v>
+        <v>208.6637598400725</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>113.2391664983816</v>
+        <v>113.2391664983817</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>98.81288171022142</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>100.4887751828677</v>
+        <v>100.4887751828678</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>100.4162127680788</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>98.65986527183198</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.49958085300391</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.39807921745971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.524022722987</v>
+        <v>145.5240227229871</v>
       </c>
       <c r="T43" t="n">
-        <v>178.0979610571591</v>
+        <v>178.0979610571592</v>
       </c>
       <c r="U43" t="n">
-        <v>227.320503584229</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>208.0556514710949</v>
+        <v>208.055651471095</v>
       </c>
       <c r="W43" t="n">
-        <v>225.233197791845</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.4756187385577</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.91237874816099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.2258979979938</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>333.9798462258097</v>
       </c>
       <c r="D44" t="n">
-        <v>326.3228172392098</v>
+        <v>326.3228172392099</v>
       </c>
       <c r="E44" t="n">
-        <v>343.2937893783318</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>357.461593829033</v>
       </c>
       <c r="G44" t="n">
-        <v>353.7672277005877</v>
+        <v>353.7672277005879</v>
       </c>
       <c r="H44" t="n">
-        <v>265.5783196728851</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.68984548217084</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.5845192520708</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0016961598884</v>
+        <v>166.0016961598885</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>197.9313020134584</v>
       </c>
       <c r="V44" t="n">
-        <v>283.4218409472277</v>
+        <v>216.6633313590784</v>
       </c>
       <c r="W44" t="n">
-        <v>156.6466960861476</v>
+        <v>312.0251444251064</v>
       </c>
       <c r="X44" t="n">
-        <v>330.2941787599846</v>
+        <v>330.2941787599847</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.2619017323158</v>
+        <v>337.2619017323159</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.0920382480992</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>98.8128817102213</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>47.56934642015313</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.3076131052598</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.65986527183186</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.39807921745971</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>145.524022722987</v>
+        <v>115.4697633160643</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>178.0979610571592</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>227.3205035842291</v>
       </c>
       <c r="V46" t="n">
-        <v>208.0556514710949</v>
+        <v>208.055651471095</v>
       </c>
       <c r="W46" t="n">
-        <v>225.233197791845</v>
+        <v>225.2331977918452</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>176.4756187385577</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.617040315234</v>
+        <v>165.6170403152341</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2327.655591362702</v>
+        <v>986.2431031906915</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.480089865633</v>
+        <v>593.067601693622</v>
       </c>
       <c r="D2" t="n">
-        <v>1604.036739400527</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4339,13 +4339,13 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N2" t="n">
-        <v>1445.616517892115</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O2" t="n">
-        <v>1885.656118784443</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362702</v>
+        <v>2009.485576867204</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362702</v>
+        <v>1753.732847301803</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362702</v>
+        <v>1753.732847301803</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.655591362702</v>
+        <v>1382.73381227009</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.655591362702</v>
+        <v>1382.73381227009</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.655591362702</v>
+        <v>986.2431031906915</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>2021.614212075288</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.64850507718</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1951.406783011508</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C4" t="n">
-        <v>1951.406783011508</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D4" t="n">
-        <v>1951.406783011508</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E4" t="n">
-        <v>1951.406783011508</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>2136.614801702809</v>
+        <v>871.2439667521655</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2196.907436154955</v>
+        <v>462.464857499824</v>
       </c>
       <c r="C5" t="n">
-        <v>1803.731934657886</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D5" t="n">
-        <v>1418.290805874553</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362702</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.655591362702</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.655591362702</v>
+        <v>1648.902917357563</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.655591362702</v>
+        <v>1259.45031229062</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.655591362702</v>
+        <v>862.9596032112208</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1029.265125924707</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.763130931309</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O6" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>518.866567299031</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>555.8638230429992</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>270.4250312849002</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>270.4250312849002</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>270.4250312849002</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X7" t="n">
-        <v>270.4250312849002</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.355515407704</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C8" t="n">
-        <v>1757.180013910635</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D8" t="n">
         <v>1757.180013910635</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="T8" t="n">
-        <v>2939.442830146827</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="U8" t="n">
-        <v>2892.957070415583</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="V8" t="n">
-        <v>2550.850261119101</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="W8" t="n">
-        <v>2550.850261119101</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="X8" t="n">
-        <v>2550.850261119101</v>
+        <v>2936.291389902433</v>
       </c>
       <c r="Y8" t="n">
-        <v>2550.850261119101</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M9" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.7025158120243</v>
+        <v>545.2089925659509</v>
       </c>
       <c r="C10" t="n">
-        <v>92.49739787801357</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="D10" t="n">
-        <v>92.49739787801357</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="E10" t="n">
-        <v>92.49739787801357</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>447.9105345033256</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>447.9105345033256</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>447.9105345033256</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>447.9105345033256</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>447.9105345033256</v>
+        <v>953.5290724406088</v>
       </c>
       <c r="Y10" t="n">
-        <v>447.9105345033256</v>
+        <v>730.4170112572522</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1596.229397996941</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1297.99457778706</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5074,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>2203.33349021336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>207.7175872278004</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>691.2836731261136</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.055322752795</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082778</v>
@@ -5184,13 +5184,13 @@
         <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5199,7 +5199,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1843.395526006234</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1545.160705796353</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1254.660258300209</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>947.0174147039415</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5314,16 +5314,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="X14" t="n">
-        <v>2176.765939604927</v>
+        <v>2450.499618222653</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>2148.949590430442</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5442,19 +5442,19 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5463,7 +5463,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5478,10 +5478,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1713.299043105698</v>
+        <v>1737.609412650266</v>
       </c>
       <c r="C17" t="n">
-        <v>1434.150288971596</v>
+        <v>1458.460658516164</v>
       </c>
       <c r="D17" t="n">
-        <v>1162.73590755123</v>
+        <v>1187.046277095799</v>
       </c>
       <c r="E17" t="n">
-        <v>874.1791300307423</v>
+        <v>898.4894995753107</v>
       </c>
       <c r="F17" t="n">
-        <v>571.3114389236872</v>
+        <v>595.6218084682555</v>
       </c>
       <c r="G17" t="n">
-        <v>272.1754307746576</v>
+        <v>296.4858003192257</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>86.42949724868356</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3053.469577509793</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2951.773274555053</v>
       </c>
       <c r="U17" t="n">
-        <v>2964.230403003342</v>
+        <v>2810.047292352619</v>
       </c>
       <c r="V17" t="n">
-        <v>2736.150341069827</v>
+        <v>2581.967230419104</v>
       </c>
       <c r="W17" t="n">
-        <v>2557.656860874535</v>
+        <v>2581.967230419104</v>
       </c>
       <c r="X17" t="n">
-        <v>2282.231003170559</v>
+        <v>2306.541372715128</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.767041454127</v>
+        <v>2024.077410998696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.481904424648</v>
+        <v>359.4819044246487</v>
       </c>
       <c r="C19" t="n">
-        <v>303.3035338536044</v>
+        <v>303.3035338536051</v>
       </c>
       <c r="D19" t="n">
-        <v>261.6971681190864</v>
+        <v>261.6971681190869</v>
       </c>
       <c r="E19" t="n">
-        <v>220.1651033412562</v>
+        <v>220.1651033412566</v>
       </c>
       <c r="F19" t="n">
-        <v>176.8659159171964</v>
+        <v>176.8659159171967</v>
       </c>
       <c r="G19" t="n">
-        <v>122.6386093796092</v>
+        <v>122.6386093796094</v>
       </c>
       <c r="H19" t="n">
-        <v>81.18680570407039</v>
+        <v>81.18680570407048</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>136.1063764594693</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>217.9414175694112</v>
+        <v>255.7117839045015</v>
       </c>
       <c r="L19" t="n">
-        <v>493.8266725336551</v>
+        <v>493.8266725336572</v>
       </c>
       <c r="M19" t="n">
-        <v>791.8758659623634</v>
+        <v>791.8758659623653</v>
       </c>
       <c r="N19" t="n">
-        <v>975.0654999935725</v>
+        <v>1086.823115084019</v>
       </c>
       <c r="O19" t="n">
-        <v>1249.527882125725</v>
+        <v>1249.527882125727</v>
       </c>
       <c r="P19" t="n">
-        <v>1369.404047902303</v>
+        <v>1369.404047902305</v>
       </c>
       <c r="Q19" t="n">
-        <v>1372.826244272354</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R19" t="n">
-        <v>1362.952002267898</v>
+        <v>1362.9520022679</v>
       </c>
       <c r="S19" t="n">
-        <v>1274.162665813415</v>
+        <v>1274.162665813417</v>
       </c>
       <c r="T19" t="n">
-        <v>1152.470361344617</v>
+        <v>1152.470361344618</v>
       </c>
       <c r="U19" t="n">
-        <v>981.0583169494848</v>
+        <v>981.058316949486</v>
       </c>
       <c r="V19" t="n">
-        <v>829.1057191332762</v>
+        <v>829.1057191332774</v>
       </c>
       <c r="W19" t="n">
-        <v>659.8020644274211</v>
+        <v>659.8020644274221</v>
       </c>
       <c r="X19" t="n">
-        <v>539.7484895733714</v>
+        <v>539.7484895733724</v>
       </c>
       <c r="Y19" t="n">
-        <v>430.6631757529821</v>
+        <v>430.6631757529829</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1525.346380554629</v>
+        <v>1737.609412650266</v>
       </c>
       <c r="C20" t="n">
-        <v>1246.197626420527</v>
+        <v>1458.460658516164</v>
       </c>
       <c r="D20" t="n">
-        <v>974.7832450001617</v>
+        <v>1187.046277095799</v>
       </c>
       <c r="E20" t="n">
-        <v>686.2264674796736</v>
+        <v>898.4894995753107</v>
       </c>
       <c r="F20" t="n">
-        <v>383.3587763726186</v>
+        <v>595.6218084682555</v>
       </c>
       <c r="G20" t="n">
-        <v>272.1754307746576</v>
+        <v>296.4858003192259</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>86.42949724868359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.768900612944</v>
@@ -5758,19 +5758,19 @@
         <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5785,19 +5785,19 @@
         <v>2996.48253012816</v>
       </c>
       <c r="U20" t="n">
-        <v>2854.756547925726</v>
+        <v>2854.756547925725</v>
       </c>
       <c r="V20" t="n">
-        <v>2626.676485992211</v>
+        <v>2838.93951808785</v>
       </c>
       <c r="W20" t="n">
-        <v>2369.704198323466</v>
+        <v>2581.967230419104</v>
       </c>
       <c r="X20" t="n">
-        <v>2094.27834061949</v>
+        <v>2306.541372715128</v>
       </c>
       <c r="Y20" t="n">
-        <v>1811.814378903059</v>
+        <v>2024.077410998696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.4819044246478</v>
+        <v>359.4819044246489</v>
       </c>
       <c r="C22" t="n">
-        <v>303.3035338536043</v>
+        <v>303.3035338536052</v>
       </c>
       <c r="D22" t="n">
-        <v>261.6971681190863</v>
+        <v>261.6971681190871</v>
       </c>
       <c r="E22" t="n">
-        <v>220.1651033412561</v>
+        <v>220.1651033412567</v>
       </c>
       <c r="F22" t="n">
-        <v>176.8659159171963</v>
+        <v>176.8659159171968</v>
       </c>
       <c r="G22" t="n">
-        <v>122.6386093796091</v>
+        <v>122.6386093796094</v>
       </c>
       <c r="H22" t="n">
-        <v>81.18680570407037</v>
+        <v>81.18680570407052</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>144.1030001971222</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>225.9380413070641</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>390.0656811808639</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>680.1182508719189</v>
+        <v>606.1310021165652</v>
       </c>
       <c r="N22" t="n">
-        <v>863.3078849031281</v>
+        <v>901.0782512382184</v>
       </c>
       <c r="O22" t="n">
-        <v>1026.012651944836</v>
+        <v>1137.770267035283</v>
       </c>
       <c r="P22" t="n">
-        <v>1257.646432811859</v>
+        <v>1369.404047902306</v>
       </c>
       <c r="Q22" t="n">
-        <v>1372.826244272354</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R22" t="n">
-        <v>1362.952002267898</v>
+        <v>1362.952002267901</v>
       </c>
       <c r="S22" t="n">
-        <v>1274.162665813415</v>
+        <v>1274.162665813417</v>
       </c>
       <c r="T22" t="n">
-        <v>1152.470361344616</v>
+        <v>1152.470361344618</v>
       </c>
       <c r="U22" t="n">
-        <v>981.0583169494846</v>
+        <v>981.0583169494863</v>
       </c>
       <c r="V22" t="n">
-        <v>829.105719133276</v>
+        <v>829.1057191332776</v>
       </c>
       <c r="W22" t="n">
-        <v>659.8020644274209</v>
+        <v>659.8020644274224</v>
       </c>
       <c r="X22" t="n">
-        <v>539.7484895733712</v>
+        <v>539.7484895733726</v>
       </c>
       <c r="Y22" t="n">
-        <v>430.6631757529818</v>
+        <v>430.6631757529831</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1713.299043105698</v>
+        <v>1737.609412650266</v>
       </c>
       <c r="C23" t="n">
-        <v>1434.150288971596</v>
+        <v>1458.460658516164</v>
       </c>
       <c r="D23" t="n">
-        <v>1162.735907551231</v>
+        <v>1187.046277095799</v>
       </c>
       <c r="E23" t="n">
-        <v>874.1791300307424</v>
+        <v>898.4894995753107</v>
       </c>
       <c r="F23" t="n">
-        <v>571.3114389236873</v>
+        <v>595.6218084682555</v>
       </c>
       <c r="G23" t="n">
-        <v>272.1754307746577</v>
+        <v>296.4858003192259</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>86.42949724868359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129441</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6016,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3053.469577509794</v>
+        <v>3053.469577509793</v>
       </c>
       <c r="T23" t="n">
-        <v>2943.995722432178</v>
+        <v>2943.995722432177</v>
       </c>
       <c r="U23" t="n">
-        <v>2802.269740229744</v>
+        <v>2802.269740229743</v>
       </c>
       <c r="V23" t="n">
         <v>2574.189678296229</v>
       </c>
       <c r="W23" t="n">
-        <v>2317.217390627484</v>
+        <v>2317.217390627483</v>
       </c>
       <c r="X23" t="n">
-        <v>2041.791532923508</v>
+        <v>2041.791532923507</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.767041454128</v>
+        <v>2024.077410998696</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2092.61204535807</v>
+        <v>359.4819044246489</v>
       </c>
       <c r="C25" t="n">
-        <v>2036.433674787026</v>
+        <v>303.3035338536052</v>
       </c>
       <c r="D25" t="n">
-        <v>1994.827309052508</v>
+        <v>261.6971681190871</v>
       </c>
       <c r="E25" t="n">
-        <v>1953.295244274678</v>
+        <v>220.1651033412567</v>
       </c>
       <c r="F25" t="n">
-        <v>1909.996056850618</v>
+        <v>176.8659159171968</v>
       </c>
       <c r="G25" t="n">
-        <v>1855.768750313031</v>
+        <v>122.6386093796094</v>
       </c>
       <c r="H25" t="n">
-        <v>1814.316946637492</v>
+        <v>81.18680570407052</v>
       </c>
       <c r="I25" t="n">
-        <v>1795.249268637537</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>1795.249268637537</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>1877.084309747479</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2152.969564711722</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2339.261143049986</v>
+        <v>606.1310021165652</v>
       </c>
       <c r="N25" t="n">
-        <v>2596.43802583655</v>
+        <v>901.0782512382184</v>
       </c>
       <c r="O25" t="n">
-        <v>2870.900407968702</v>
+        <v>1175.54063337037</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>1295.416799146949</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>1372.826244272356</v>
       </c>
       <c r="R25" t="n">
-        <v>3096.08214320132</v>
+        <v>1362.952002267901</v>
       </c>
       <c r="S25" t="n">
-        <v>3007.292806746837</v>
+        <v>1274.162665813417</v>
       </c>
       <c r="T25" t="n">
-        <v>2885.600502278038</v>
+        <v>1152.470361344618</v>
       </c>
       <c r="U25" t="n">
-        <v>2714.188457882906</v>
+        <v>981.0583169494863</v>
       </c>
       <c r="V25" t="n">
-        <v>2562.235860066698</v>
+        <v>829.1057191332776</v>
       </c>
       <c r="W25" t="n">
-        <v>2392.932205360843</v>
+        <v>659.8020644274224</v>
       </c>
       <c r="X25" t="n">
-        <v>2272.878630506793</v>
+        <v>539.7484895733726</v>
       </c>
       <c r="Y25" t="n">
-        <v>2163.793316686404</v>
+        <v>430.6631757529831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.211875180718</v>
+        <v>1537.314992064227</v>
       </c>
       <c r="C26" t="n">
-        <v>1572.977054970837</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E26" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J26" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
@@ -6244,7 +6244,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U26" t="n">
-        <v>2754.374321141661</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V26" t="n">
-        <v>2754.374321141661</v>
+        <v>2714.989361804925</v>
       </c>
       <c r="W26" t="n">
-        <v>2478.315967397137</v>
+        <v>2438.931008060401</v>
       </c>
       <c r="X26" t="n">
-        <v>2478.315967397137</v>
+        <v>2144.419084280646</v>
       </c>
       <c r="Y26" t="n">
-        <v>2176.765939604927</v>
+        <v>1842.869056488435</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
         <v>417.8199303082779</v>
@@ -6369,7 +6369,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
         <v>234.1241141445331</v>
@@ -6381,7 +6381,7 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J28" t="n">
         <v>125.3967468362513</v>
@@ -6417,19 +6417,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.297982448385</v>
+        <v>1391.743918024176</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1093.509097814295</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>803.0086503181512</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>495.3658067218841</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>173.4120495390502</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>173.4120495390502</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
@@ -6502,7 +6502,7 @@
         <v>2569.418287764875</v>
       </c>
       <c r="W29" t="n">
-        <v>2293.359934020351</v>
+        <v>2293.35993402035</v>
       </c>
       <c r="X29" t="n">
         <v>1998.848010240596</v>
@@ -6542,25 +6542,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979813</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445331</v>
@@ -6639,7 +6639,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
         <v>1678.203301484817</v>
@@ -6654,19 +6654,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6779,16 +6779,16 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6861,25 +6861,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>270.9691711012516</v>
       </c>
       <c r="L34" t="n">
-        <v>442.7178209184686</v>
+        <v>435.0968109750514</v>
       </c>
       <c r="M34" t="n">
-        <v>629.0093992567326</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879418</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296498</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R34" t="n">
         <v>1098.202162476279</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803438</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924196</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411552</v>
@@ -6973,16 +6973,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q37" t="n">
         <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E38" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411552</v>
@@ -7207,19 +7207,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224689</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918056</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251377</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470224</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114127</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>2075.452993041794</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>2157.288034151736</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059146</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921376</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1458.582586919251</v>
+        <v>1815.42278658171</v>
       </c>
       <c r="C41" t="n">
-        <v>1121.229206893181</v>
+        <v>1478.06940655564</v>
       </c>
       <c r="D41" t="n">
-        <v>791.6101995808478</v>
+        <v>1478.06940655564</v>
       </c>
       <c r="E41" t="n">
-        <v>444.8487961683915</v>
+        <v>1131.308003143183</v>
       </c>
       <c r="F41" t="n">
-        <v>83.77647916936832</v>
+        <v>770.2356861441599</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>412.8950521031621</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>144.6341231406517</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411552</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2995.264951617825</v>
       </c>
       <c r="T41" t="n">
-        <v>2938.277904236192</v>
+        <v>2827.586470648241</v>
       </c>
       <c r="U41" t="n">
-        <v>2738.347296141789</v>
+        <v>2627.655862553838</v>
       </c>
       <c r="V41" t="n">
-        <v>2452.062608316307</v>
+        <v>2341.371174728356</v>
       </c>
       <c r="W41" t="n">
-        <v>2136.885694755593</v>
+        <v>2026.194261167642</v>
       </c>
       <c r="X41" t="n">
-        <v>1803.255211159649</v>
+        <v>1815.42278658171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1803.255211159649</v>
+        <v>1815.42278658171</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2012.479825010891</v>
+        <v>656.1761805166262</v>
       </c>
       <c r="C43" t="n">
-        <v>1898.096828547879</v>
+        <v>541.7931840536144</v>
       </c>
       <c r="D43" t="n">
-        <v>1898.096828547879</v>
+        <v>441.9821924271281</v>
       </c>
       <c r="E43" t="n">
-        <v>1898.096828547879</v>
+        <v>441.9821924271281</v>
       </c>
       <c r="F43" t="n">
-        <v>1796.593015231851</v>
+        <v>340.4783791111</v>
       </c>
       <c r="G43" t="n">
-        <v>1796.593015231851</v>
+        <v>239.0478611635457</v>
       </c>
       <c r="H43" t="n">
-        <v>1796.593015231851</v>
+        <v>139.3914315960387</v>
       </c>
       <c r="I43" t="n">
-        <v>1796.593015231851</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>1821.53053388814</v>
+        <v>87.05664636040413</v>
       </c>
       <c r="K43" t="n">
-        <v>1958.076836251808</v>
+        <v>223.6029487240721</v>
       </c>
       <c r="L43" t="n">
-        <v>2176.915737379334</v>
+        <v>442.441849851598</v>
       </c>
       <c r="M43" t="n">
-        <v>2417.918576971324</v>
+        <v>683.4446894435881</v>
       </c>
       <c r="N43" t="n">
-        <v>2655.819472256259</v>
+        <v>921.3455847285234</v>
       </c>
       <c r="O43" t="n">
-        <v>2873.235500551694</v>
+        <v>1138.761613023958</v>
       </c>
       <c r="P43" t="n">
-        <v>3047.822927581999</v>
+        <v>1313.349040054262</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1371.482497678039</v>
       </c>
       <c r="R43" t="n">
-        <v>3037.877517309352</v>
+        <v>1371.482497678039</v>
       </c>
       <c r="S43" t="n">
-        <v>2890.8835549629</v>
+        <v>1224.488535331588</v>
       </c>
       <c r="T43" t="n">
-        <v>2710.986624602133</v>
+        <v>1044.591604970821</v>
       </c>
       <c r="U43" t="n">
-        <v>2481.369954315033</v>
+        <v>1044.591604970821</v>
       </c>
       <c r="V43" t="n">
-        <v>2271.212730606856</v>
+        <v>834.4343812626441</v>
       </c>
       <c r="W43" t="n">
-        <v>2043.704450009033</v>
+        <v>834.4343812626441</v>
       </c>
       <c r="X43" t="n">
-        <v>2043.704450009033</v>
+        <v>656.1761805166262</v>
       </c>
       <c r="Y43" t="n">
-        <v>2012.479825010891</v>
+        <v>656.1761805166262</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1364.101101432413</v>
+        <v>1530.019461519076</v>
       </c>
       <c r="C44" t="n">
-        <v>1364.101101432413</v>
+        <v>1192.666081493006</v>
       </c>
       <c r="D44" t="n">
-        <v>1034.48209412008</v>
+        <v>863.0470741806728</v>
       </c>
       <c r="E44" t="n">
-        <v>687.7206907076235</v>
+        <v>863.0470741806728</v>
       </c>
       <c r="F44" t="n">
-        <v>687.7206907076235</v>
+        <v>501.9747571816496</v>
       </c>
       <c r="G44" t="n">
-        <v>330.3800566666258</v>
+        <v>144.6341231406517</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>144.6341231406517</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2995.264951617825</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2827.586470648241</v>
+        <v>2938.277904236192</v>
       </c>
       <c r="U44" t="n">
-        <v>2827.586470648241</v>
+        <v>2738.347296141789</v>
       </c>
       <c r="V44" t="n">
-        <v>2541.301782822758</v>
+        <v>2519.495446284134</v>
       </c>
       <c r="W44" t="n">
-        <v>2383.072796877155</v>
+        <v>2204.318532723421</v>
       </c>
       <c r="X44" t="n">
-        <v>2049.442313281211</v>
+        <v>1870.688049127476</v>
       </c>
       <c r="Y44" t="n">
-        <v>1708.773725672811</v>
+        <v>1530.019461519076</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2156.542213724241</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C46" t="n">
-        <v>2156.542213724241</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D46" t="n">
-        <v>2056.731222097755</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E46" t="n">
-        <v>2008.681377228913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F46" t="n">
-        <v>2008.681377228913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G46" t="n">
-        <v>1896.249444799358</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>1796.593015231851</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>1796.593015231851</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>1821.53053388814</v>
+        <v>87.05664636040413</v>
       </c>
       <c r="K46" t="n">
-        <v>1958.076836251808</v>
+        <v>223.6029487240721</v>
       </c>
       <c r="L46" t="n">
-        <v>2176.915737379334</v>
+        <v>442.441849851598</v>
       </c>
       <c r="M46" t="n">
-        <v>2417.918576971324</v>
+        <v>683.4446894435881</v>
       </c>
       <c r="N46" t="n">
-        <v>2655.819472256259</v>
+        <v>921.3455847285234</v>
       </c>
       <c r="O46" t="n">
-        <v>2873.235500551694</v>
+        <v>1138.761613023958</v>
       </c>
       <c r="P46" t="n">
-        <v>3047.822927581999</v>
+        <v>1313.349040054262</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205776</v>
+        <v>1371.482497678039</v>
       </c>
       <c r="R46" t="n">
-        <v>3037.877517309352</v>
+        <v>1371.482497678039</v>
       </c>
       <c r="S46" t="n">
-        <v>2890.8835549629</v>
+        <v>1254.846373116358</v>
       </c>
       <c r="T46" t="n">
-        <v>2890.8835549629</v>
+        <v>1074.949442755591</v>
       </c>
       <c r="U46" t="n">
-        <v>2890.8835549629</v>
+        <v>845.3327724684914</v>
       </c>
       <c r="V46" t="n">
-        <v>2680.726331254723</v>
+        <v>635.1755487603145</v>
       </c>
       <c r="W46" t="n">
-        <v>2453.2180506569</v>
+        <v>407.6672681624911</v>
       </c>
       <c r="X46" t="n">
-        <v>2453.2180506569</v>
+        <v>229.4090674164732</v>
       </c>
       <c r="Y46" t="n">
-        <v>2285.928110944543</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>558.845202393504</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4295544649537</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,16 +8069,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>440.1969457594874</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8230,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8300,22 +8300,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0315943131595</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>500.3175139373677</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8470,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8537,22 +8537,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>122.408528569654</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8783,13 +8783,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,19 +9008,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>551.1687275349758</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,13 +9488,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,7 +9728,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,7 +9962,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10667,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>351.8313913012159</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11384,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>272.2326524119392</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.5130781045864</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>27.53818568273925</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>246.9958951047301</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.06726584912225</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>51.96193961902237</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>108.3791165268399</v>
+        <v>7.699776601646903</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>77.69401939871807</v>
+        <v>254.4025647920579</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>186.0731359255579</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>24.06726584912222</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>51.96193961902235</v>
+        <v>51.9619396190225</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>210.1404017746822</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.06726584912231</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>238.0350755445808</v>
+        <v>262.1023413937048</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.269151347861339</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>144.1153632996502</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>172.1747538050091</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>159.6334241024159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>341.2258979979939</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>326.3228172392099</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>332.3264497499875</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>265.5783196728851</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>81.68984548217072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.5845192520708</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>121.6304189199122</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.2619017323158</v>
+        <v>337.2619017323159</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.0920382480992</v>
+        <v>128.0920382480993</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>98.8128817102213</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.73932376310042</v>
+        <v>98.73932376310053</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.3076131052598</v>
+        <v>10.89140033718118</v>
       </c>
       <c r="H43" t="n">
-        <v>98.65986527183186</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.49958085300379</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.39807921745982</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>227.3205035842291</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>225.2331977918452</v>
       </c>
       <c r="X43" t="n">
-        <v>176.4756187385576</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.704661567073</v>
+        <v>165.6170403152341</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>341.2258979979939</v>
       </c>
       <c r="C44" t="n">
-        <v>333.9798462258096</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>343.2937893783319</v>
       </c>
       <c r="F44" t="n">
-        <v>357.4615938290329</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>265.5783196728852</v>
       </c>
       <c r="I44" t="n">
-        <v>81.68984548217072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.584519252071</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>197.9313020134583</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>66.75850958814937</v>
       </c>
       <c r="W44" t="n">
-        <v>155.3784483389587</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>128.0920382480993</v>
       </c>
       <c r="C46" t="n">
-        <v>113.2391664983816</v>
+        <v>113.2391664983817</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.81288171022142</v>
       </c>
       <c r="E46" t="n">
-        <v>51.16997734294728</v>
+        <v>98.73932376310053</v>
       </c>
       <c r="F46" t="n">
-        <v>100.4887751828677</v>
+        <v>100.4887751828678</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>111.3076131052599</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.65986527183198</v>
       </c>
       <c r="I46" t="n">
-        <v>76.49958085300379</v>
+        <v>76.49958085300391</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.39807921745982</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>30.05425940692287</v>
       </c>
       <c r="T46" t="n">
-        <v>178.0979610571591</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>227.320503584229</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>176.4756187385576</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>589123.1101151668</v>
+        <v>589123.1101151669</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608299.8540908716</v>
+        <v>608299.8540908715</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608299.8540908718</v>
+        <v>608299.8540908715</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608299.8540908716</v>
+        <v>608299.8540908715</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>589123.1101151668</v>
+        <v>589123.1101151666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>589123.1101151668</v>
+        <v>589123.1101151666</v>
       </c>
     </row>
     <row r="12">
@@ -26316,46 +26316,46 @@
         <v>649195.8411360842</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360842</v>
+        <v>649195.8411360845</v>
       </c>
       <c r="D2" t="n">
         <v>649195.8411360842</v>
       </c>
       <c r="E2" t="n">
-        <v>610114.0416596584</v>
+        <v>610114.0416596585</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596582</v>
+        <v>610114.0416596581</v>
       </c>
       <c r="G2" t="n">
-        <v>630418.8293986395</v>
+        <v>630418.8293986394</v>
       </c>
       <c r="H2" t="n">
-        <v>630418.8293986396</v>
+        <v>630418.8293986394</v>
       </c>
       <c r="I2" t="n">
         <v>630418.8293986394</v>
       </c>
       <c r="J2" t="n">
-        <v>610114.0416596587</v>
+        <v>610114.0416596585</v>
       </c>
       <c r="K2" t="n">
         <v>610114.0416596582</v>
       </c>
       <c r="L2" t="n">
+        <v>649195.8411360858</v>
+      </c>
+      <c r="M2" t="n">
         <v>649195.8411360862</v>
       </c>
-      <c r="M2" t="n">
-        <v>649195.8411360864</v>
-      </c>
       <c r="N2" t="n">
-        <v>649195.8411360862</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="O2" t="n">
-        <v>548554.5071266103</v>
+        <v>548554.5071266105</v>
       </c>
       <c r="P2" t="n">
-        <v>548554.5071266104</v>
+        <v>548554.5071266105</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>57490.45920108644</v>
       </c>
       <c r="E3" t="n">
-        <v>75193.01957945316</v>
+        <v>75193.01957945318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15116.16433201689</v>
+        <v>15116.1643320168</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91052.4356274379</v>
+        <v>91052.43562743784</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
-        <v>122925.1983963106</v>
+        <v>122925.1983963105</v>
       </c>
       <c r="H4" t="n">
-        <v>122925.1983963106</v>
+        <v>122925.1983963104</v>
       </c>
       <c r="I4" t="n">
         <v>122925.1983963105</v>
@@ -26453,13 +26453,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>71007.60195568088</v>
+        <v>71007.60195568076</v>
       </c>
       <c r="P4" t="n">
-        <v>71007.60195568088</v>
+        <v>71007.60195568076</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>56700.79053294451</v>
+        <v>56700.7905329445</v>
       </c>
       <c r="H5" t="n">
-        <v>56700.79053294452</v>
+        <v>56700.7905329445</v>
       </c>
       <c r="I5" t="n">
-        <v>56700.79053294451</v>
+        <v>56700.7905329445</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
@@ -26502,16 +26502,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>51856.51788577376</v>
+        <v>51856.51788577375</v>
       </c>
       <c r="P5" t="n">
-        <v>51856.51788577376</v>
+        <v>51856.51788577375</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>215622.5275498845</v>
       </c>
       <c r="C6" t="n">
-        <v>413818.3335416295</v>
+        <v>413818.3335416298</v>
       </c>
       <c r="D6" t="n">
-        <v>376161.5080056636</v>
+        <v>376161.5080056635</v>
       </c>
       <c r="E6" t="n">
-        <v>369665.3482073017</v>
+        <v>369556.7876532006</v>
       </c>
       <c r="F6" t="n">
-        <v>444858.3677867546</v>
+        <v>444749.8072326533</v>
       </c>
       <c r="G6" t="n">
-        <v>435676.6761373676</v>
+        <v>435624.5177714303</v>
       </c>
       <c r="H6" t="n">
-        <v>450792.8404693846</v>
+        <v>450740.6821034471</v>
       </c>
       <c r="I6" t="n">
-        <v>450792.8404693844</v>
+        <v>450740.6821034471</v>
       </c>
       <c r="J6" t="n">
-        <v>230042.0781737153</v>
+        <v>229933.517619614</v>
       </c>
       <c r="K6" t="n">
-        <v>444858.3677867546</v>
+        <v>444749.8072326534</v>
       </c>
       <c r="L6" t="n">
-        <v>365225.9311856522</v>
+        <v>365225.9311856518</v>
       </c>
       <c r="M6" t="n">
-        <v>456278.3668130903</v>
+        <v>456278.36681309</v>
       </c>
       <c r="N6" t="n">
-        <v>456278.36681309</v>
+        <v>456278.3668130898</v>
       </c>
       <c r="O6" t="n">
-        <v>425690.3872851557</v>
+        <v>425410.8280240186</v>
       </c>
       <c r="P6" t="n">
-        <v>425690.3872851558</v>
+        <v>425410.8280240186</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="H2" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="I2" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26721,13 +26721,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="P2" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
     </row>
     <row r="3">
@@ -26804,16 +26804,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>776.489096301444</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.89520541502111</v>
+        <v>18.895205415021</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.0960690592954</v>
+        <v>75.09606905929546</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628901</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.89520541502111</v>
+        <v>18.895205415021</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.0960690592954</v>
+        <v>75.09606905929546</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.44780053504485</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>71.12570157399435</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.7995537046446</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.0491245986134</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>113.3675191944146</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>38.25854546189788</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27788,13 +27788,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27824,25 +27824,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>45.18257638862852</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>34.49305873538381</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>207.1743001358155</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28019,10 +28019,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>46.31270418155415</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28076,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>221.8028119678382</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="C17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="D17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="E17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="F17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="G17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="H17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="I17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="T17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="U17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="V17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="W17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="X17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="Y17" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
     </row>
     <row r="18">
@@ -28721,46 +28721,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="C19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="D19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="F19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="G19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="H19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="I19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="J19" t="n">
-        <v>104.8090821745366</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="L19" t="n">
-        <v>112.8864798893376</v>
+        <v>74.73459470237972</v>
       </c>
       <c r="M19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="O19" t="n">
-        <v>112.8864798893376</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="S19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="T19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="U19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="V19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="W19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="X19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893375</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="C20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="D20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="E20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="F20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="G20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="H20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="I20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="T20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="U20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="V20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="W20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="X20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
     </row>
     <row r="21">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="C22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="D22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="E22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="F22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="G22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="H22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="I22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="J22" t="n">
-        <v>112.8864798893376</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28991,43 +28991,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>104.8090821745364</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>74.73459470238038</v>
       </c>
       <c r="P22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Q22" t="n">
-        <v>112.8864798893376</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="S22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="T22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="U22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="V22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="W22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="X22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.8864798893376</v>
+        <v>112.8864798893374</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="C23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="D23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="E23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="F23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="G23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="H23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="I23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="T23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="U23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="V23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="W23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="X23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="C25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="D25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="E25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="F25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="G25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="H25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29225,46 +29225,46 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>112.8864798893375</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="N25" t="n">
-        <v>74.73459470237856</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="O25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="P25" t="n">
-        <v>112.8864798893375</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>74.73459470238035</v>
       </c>
       <c r="R25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="S25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="T25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="U25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="V25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="W25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="X25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.8864798893375</v>
+        <v>112.8864798893374</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29933,10 +29933,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28.01250026485162</v>
       </c>
       <c r="L34" t="n">
-        <v>35.71049010668722</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30167,7 +30167,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30176,10 +30176,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>28.01250026485164</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30380,43 +30380,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668541</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="C41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="D41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="E41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="F41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="G41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="H41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="I41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="T41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="U41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="V41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="W41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="X41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="C43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="D43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="E43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="F43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="G43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="H43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="I43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="J43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="K43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="L43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="M43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="N43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="O43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="P43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="R43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="S43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="T43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="U43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="V43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="W43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="X43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="C44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="D44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="E44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="F44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="G44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="H44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="I44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="T44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="U44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="V44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="W44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="X44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="C46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="D46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="E46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="F46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="G46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="H46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="I46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="J46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="K46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="L46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="M46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="N46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="O46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="P46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="R46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="S46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="T46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="U46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="V46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="W46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="X46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.26390025628909</v>
+        <v>55.26390025628898</v>
       </c>
     </row>
   </sheetData>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>409.2813649694075</v>
       </c>
       <c r="P2" t="n">
-        <v>298.1281072240285</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,16 +34789,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.5093868705986</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34950,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>554.6444722638477</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>414.945401083201</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35257,22 +35257,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.81159323632068</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35503,13 +35503,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>458.4811686460869</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.73459470237754</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>195.5481375761474</v>
       </c>
       <c r="L19" t="n">
-        <v>278.6719747113576</v>
+        <v>240.5200895243997</v>
       </c>
       <c r="M19" t="n">
-        <v>301.0597913421295</v>
+        <v>301.0597913421294</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>297.9265142642963</v>
       </c>
       <c r="O19" t="n">
-        <v>277.2347294264164</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,13 +36208,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>82.81199241717852</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36287,19 +36287,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>292.9823936273283</v>
+        <v>301.0597913421294</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>297.9265142642962</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>239.0828442394592</v>
       </c>
       <c r="P22" t="n">
-        <v>233.9735160272958</v>
+        <v>233.9735160272956</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.3432438994901</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36521,22 +36521,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>278.6719747113575</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>301.0597913421294</v>
       </c>
       <c r="N25" t="n">
-        <v>259.7746290773374</v>
+        <v>297.9265142642962</v>
       </c>
       <c r="O25" t="n">
-        <v>277.2347294264164</v>
+        <v>277.2347294264163</v>
       </c>
       <c r="P25" t="n">
-        <v>233.9735160272957</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>78.19135871253283</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,7 +36682,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37229,10 +37229,10 @@
         <v>100.2854818434254</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516616</v>
       </c>
       <c r="L34" t="n">
-        <v>201.4959849287072</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37472,10 +37472,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>316.4712935610694</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398104</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37487,7 +37487,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634526339</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37724,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.18941278413002</v>
+        <v>25.18941278412991</v>
       </c>
       <c r="K43" t="n">
-        <v>137.9255579430991</v>
+        <v>137.925557943099</v>
       </c>
       <c r="L43" t="n">
-        <v>221.0493950783091</v>
+        <v>221.049395078309</v>
       </c>
       <c r="M43" t="n">
-        <v>243.4372117090811</v>
+        <v>243.4372117090809</v>
       </c>
       <c r="N43" t="n">
-        <v>240.3039346312479</v>
+        <v>240.3039346312478</v>
       </c>
       <c r="O43" t="n">
-        <v>219.612149793368</v>
+        <v>219.6121497933678</v>
       </c>
       <c r="P43" t="n">
-        <v>176.3509363942472</v>
+        <v>176.3509363942471</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.72066426644157</v>
+        <v>58.72066426644146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.18941278413002</v>
+        <v>25.18941278412991</v>
       </c>
       <c r="K46" t="n">
-        <v>137.9255579430991</v>
+        <v>137.925557943099</v>
       </c>
       <c r="L46" t="n">
-        <v>221.0493950783091</v>
+        <v>221.049395078309</v>
       </c>
       <c r="M46" t="n">
-        <v>243.4372117090811</v>
+        <v>243.4372117090809</v>
       </c>
       <c r="N46" t="n">
-        <v>240.3039346312479</v>
+        <v>240.3039346312478</v>
       </c>
       <c r="O46" t="n">
-        <v>219.612149793368</v>
+        <v>219.6121497933678</v>
       </c>
       <c r="P46" t="n">
-        <v>176.3509363942472</v>
+        <v>176.3509363942471</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.72066426644157</v>
+        <v>58.72066426644146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
